--- a/spliced/struggle/2023-04-11_10-25-25/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-25-25/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-6.568115353584284</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.677844420075353</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.651133604347696</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.842656075954431</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.627654522657398</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.928949266672134</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.230176210403448</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-4.852406792342663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3913787733763447</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2968738228082666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.301035702228551</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.64691380783915</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6.109266191720954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.465943455696097</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-2.991184197366218</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.608212560415278</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.307898223400096</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.068972408771528</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7334359884262174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-1.702915767207749</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.5735956337302961</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9715757742524092</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.414293382316824</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2869436666369428</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1008520126342796</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-3.79365611076355</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.782416181638838</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.588389292359353</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.179930865764618</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.5433011054992622</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.409818679094315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
